--- a/biology/Botanique/Pelouse_calcaire/Pelouse_calcaire.xlsx
+++ b/biology/Botanique/Pelouse_calcaire/Pelouse_calcaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une pelouse calcaire ou  pelouse calcicole ou encore larris (en Picardie) fait partie de la catégorie des pelouses sèches. Il s'agit d'un sol sur roche-mère calcaire en milieu sec, favorisant une association de plantes vivant en structure stable de pelouse. Ce type de sol est structuré comme un écosystème de climat tempéré développé exclusivement sur sols très calcaires. Il peut être d'origine naturelle et/ou agropastorale (on parle alors d'agroécosystème entretenu par le pâturage et/ou un « entretien » mécanique, du type fauche/exportation sur des parcelles mécanisables).
 C'est un habitat dit « patrimonial », en recul et localement menacé (ou disparu), bien que reconnu par l'Union Européenne au travers de son réseau Natura 2000 et de grand intérêt pour la biodiversité : plusieurs programmes de préservation des pelouses dites « relictuelles » sont ainsi en œuvre en Europe. La valeur écologique de ce milieu est notamment liée au fait qu'il est souvent resté relativement oligotrophe et épargné par l'application directe d'engrais et pesticides. De plus, pour des raisons géologiques, les pelouses calcicoles longent souvent des vallées, y formant des corridors biologiques de grande valeur et d'intérêt paysager. Ce sont des refuges pour de nombreuses espèces pionnières, par ailleurs importantes pour la résilience écologique des écosystèmes.
@@ -513,7 +525,9 @@
           <t>Associations typiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit généralement d'un stade pionnier, enrichi d'espèces spécifiques correspondant probablement à des milieux autrefois entretenus par des troupeaux de grands herbivores sauvages. Ces derniers ont progressivement été remplacés par les troupeaux d'animaux domestiqués : chèvres et moutons le plus souvent, mais aussi ânes, mulets, baudets, les chevaux étant plutôt mis en pâture sur des milieux plus riches et productifs. Les bovins sont également présents, mais demandent pour les éleveurs un savoir-faire particulier à cause de la fragilité des sols, notamment en été (risques d'érosion). Les petits herbivores (lièvre et lapin) et même les nombreux invertébrés herbivores qui y vivent (criquets et sauterelles, limaces et escargots, punaises et chenilles, nombreux papillons…) y jouent un rôle également important.
 Les habitats particuliers sont caractérisés par un pH basique et, quand les précipitations sont trop espacées, par une xéricité superficielle (milieu sec). Cet état de base ne facilite pas la diffusion de certains oligoéléments au profit de l'auto-entretien du milieu. Bien que le calcaire soit un amendement pour certains sols, sur de grandes étendues, il constitue un sol plutôt « pauvre » en oligoéléments. Il est pour cette raison caractérisé par une flore adaptée à ce pH, dite  « calcicole ».
@@ -547,9 +561,11 @@
           <t>Réseau ou mise en réseau, protection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le cadre des trames vertes, du réseau Natura 2000 ou du réseau écologique paneuropéen, des stratégies de gestion restauratoire peuvent s'intégrer dans une approche systémique de type réseau écologique. Par exemple, la région Bourgogne propose un réseau orange de pelouses sèches dans le cadre de son schéma régional de cohérence écologique (SRCE)[4]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cadre des trames vertes, du réseau Natura 2000 ou du réseau écologique paneuropéen, des stratégies de gestion restauratoire peuvent s'intégrer dans une approche systémique de type réseau écologique. Par exemple, la région Bourgogne propose un réseau orange de pelouses sèches dans le cadre de son schéma régional de cohérence écologique (SRCE)
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Quelques types de pelouses calcicoles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Selon la densité végétale et l'humidité des sols, il est possible de distinguer différents types de pelouses calcaires :
 Trachynion, Trachynion distachyae : pelouses calcicoles dominées par des plantes annuelles
@@ -613,8 +631,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes à fleurs
-Les orchidées sont présentes, notamment : Ophrys abeille (Ophrys apifera), Ophrys bourdon (Ophrys fuciflora), Orchis moucheron ou mouche (Gymnadenia conopsea), Epipactis rouge (Epipactis atrorubens), Orchis homme-pendu (Aceras anthropophorum), Grande listère (Listera ovata), Orchis bouc (Himantoglossum hircinum), Orchis militaire (Orchis militaris)… qui sont des espèces typiques des pelouses calcaires. 
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les orchidées sont présentes, notamment : Ophrys abeille (Ophrys apifera), Ophrys bourdon (Ophrys fuciflora), Orchis moucheron ou mouche (Gymnadenia conopsea), Epipactis rouge (Epipactis atrorubens), Orchis homme-pendu (Aceras anthropophorum), Grande listère (Listera ovata), Orchis bouc (Himantoglossum hircinum), Orchis militaire (Orchis militaris)… qui sont des espèces typiques des pelouses calcaires. 
 Quelques plantes caractéristiques des pelouses calcicoles
  Ophrys abeille 
 Description : plante haute de 15-40 cm. Plante robuste. Feuilles inférieurs plus ou moins étalées, les supérieures plutôt dressées. Une ou deux feuilles caulinéaires. Inflorescence lâche. Sépales généralement rose, rose-pourpre, plus rarement blancs, présentant le plus souvent une nervure médiane verte. Sépale dorsal dressé à l’ouverture de la fleur, ensuite rabattu vers l’arrière. Pétales très petits, velus, vert, vert-jaune, parfois rosâtre. Labelle profondément trilobé à sa base, brun à brun-rouge. Lobes latéraux formant des gibbosités très développées, aiguës, fortement velues à l’extérieur, à sa face intérieure glabre. Lobe médian bombé, les bords étant rabattu sur le dessous. La macule peu complexe, variable, entourée d’un liseré blanc-jaunâtre. Champ basal, brun-orangé souligné entièrement et latéralement par la macule. Partie distale du labelle orné de 2 taches claires, isolées, parfois se rejoignant ou encore se prolongeant en arrière jusqu’à la macule. Appendice vert et long, fortement rabattu sous le labelle, invisible du dessus. Gynostème long et très sinueux. Pollinies portées par de longs caudicules, tombant à maturité sur le stigmate.
@@ -673,8 +696,6 @@
 Description : aussi appelé serpolet à feuilles étroites. C'est une plante aromatique basse, tapissante, aux tiges radicantes aux nœuds, aux très petites feuilles opposées ovales ou lancéolées, aux courtes hampes florales dressées, aux petites fleurs rose-pourpre groupées en capitules terminaux 
 Période de floraison : à partir de mai
 Habitat : on la trouve dans les prés secs où abondent les lapins, les terrains nus, les broussailles et les éboulis où ses racines permettent de maintenir le sol.
-Lande calcicole
-C'est un habitat qui se développe dans les bassins sédimentaires, sur des terrains calcaires surtout exposés au sud (tels que les bassins de Paris et de Londres). Ce sont des pelouses sur sols minces (de type rendzine). La végétation est une pelouse formée de selestrie (Selestria coerula), de brachypode (Brachypodium pinnatum), d'hélianthème (Helianthemum), de coronille (Coronilla varia), d'aubépine (Crateagus oxyacantha), de genévrier (Juniperus communis)…
 </t>
         </is>
       </c>
@@ -700,10 +721,49 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Végétation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Lande calcicole</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un habitat qui se développe dans les bassins sédimentaires, sur des terrains calcaires surtout exposés au sud (tels que les bassins de Paris et de Londres). Ce sont des pelouses sur sols minces (de type rendzine). La végétation est une pelouse formée de selestrie (Selestria coerula), de brachypode (Brachypodium pinnatum), d'hélianthème (Helianthemum), de coronille (Coronilla varia), d'aubépine (Crateagus oxyacantha), de genévrier (Juniperus communis)…
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pelouse_calcaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pelouse_calcaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Menaces, évolutions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En l'absence de troupeaux (sauvages ou domestiques) , ou soumises à une forte densité de petits herbivores, les pelouses tendent à rapidement évoluer vers le boisement (en quelques décennies).
 Sur de fortes pentes (ex. cirques rocheux), des pelouses calcaires peuvent être entretenues dans certains couloirs d'avalanche, là où l'horizon superficiel est facilement emporté par ruissellement (érosion).
